--- a/contract_flow/CalloutBotTime.xlsx
+++ b/contract_flow/CalloutBotTime.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cyrus/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FBF056-F18A-B547-9F4E-DFCBBFA8BBF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C02D2A7-222F-CF41-BED0-4E5C67BBEFCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="14900" tabRatio="639" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,7 +400,9 @@
     <t>time</t>
   </si>
   <si>
-    <t>{time}</t>
+    <t>{time}
+{time} is preferable.
+{time} please.</t>
   </si>
 </sst>
 </file>
@@ -794,7 +796,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -835,7 +837,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>102</v>
       </c>
